--- a/hw2/error.xlsx
+++ b/hw2/error.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TXT\S21\integrals\hw2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{22396F78-7D44-45C8-800C-40E615D78CC3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B48C777-0C4F-46A4-9DA2-1CBA0DA4004D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{1B9A4BDF-258A-442C-A555-5F3477E35CC1}"/>
   </bookViews>
@@ -253,6 +253,1510 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>L-Infinity Normed Error</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$A$1:$A$110</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="110"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>310</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>340</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>370</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>380</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>390</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>410</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>420</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>430</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>440</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>460</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>470</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>480</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>490</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>510</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>520</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>530</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>540</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>550</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>560</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>570</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>580</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>590</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>610</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>620</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>630</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>640</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>650</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>660</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>670</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>680</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>690</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>710</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>720</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>730</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>740</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>760</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>770</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>780</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>790</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>810</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>820</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>830</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>840</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>850</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>860</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>870</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>880</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>890</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>910</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>920</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>930</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>940</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>950</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>960</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>970</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>980</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>990</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$B$1:$B$110</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="110"/>
+                <c:pt idx="0">
+                  <c:v>8.2823000000000003E-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.1117000000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.4693999999999995E-6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.3561000000000003E-6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.4415999999999998E-6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.3974000000000001E-6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.7655000000000001E-6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.3543000000000001E-6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.0717E-6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.6927999999999996E-7</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7.1925000000000004E-7</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6.0500000000000003E-7</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.1597000000000003E-7</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.4526E-7</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.8814999999999999E-7</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.4136999999999999E-7</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.0256999999999999E-7</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.7004E-7</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.4247999999999998E-7</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.1895000000000001E-7</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.9868E-7</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.811E-7</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.6576E-7</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.5229E-7</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.4039E-7</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.2984E-7</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.2044000000000001E-7</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.1202000000000001E-7</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.0446E-7</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>9.7635E-8</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>9.146E-8</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>8.5852999999999995E-8</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>8.0746000000000001E-8</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>7.6082999999999994E-8</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>7.1811999999999995E-8</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>6.7889999999999994E-8</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>6.4282000000000006E-8</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>6.0955000000000006E-8</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>5.7878999999999998E-8</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>5.5029999999999997E-8</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>5.2386999999999998E-8</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4.9929999999999998E-8</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>4.7641000000000003E-8</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>4.5506999999999998E-8</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>4.3513000000000001E-8</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>4.1647000000000002E-8</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>3.9898999999999999E-8</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>3.8258999999999999E-8</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>3.6717999999999998E-8</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>3.5268000000000002E-8</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>3.3902000000000001E-8</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>3.2613999999999997E-8</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>3.1399000000000002E-8</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>3.0250000000000003E-8</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>2.9163000000000001E-8</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>2.8133000000000001E-8</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>2.7157E-8</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>2.6230999999999998E-8</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>2.5352000000000001E-8</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>2.4515999999999999E-8</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>2.3721000000000001E-8</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>2.2964E-8</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>2.2242999999999999E-8</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>2.1555E-8</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>2.0898E-8</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>2.0271E-8</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1.9671999999999999E-8</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1.9099000000000001E-8</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1.8550999999999998E-8</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1.8025999999999999E-8</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1.7523000000000001E-8</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1.7041E-8</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1.6578000000000001E-8</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1.6134999999999999E-8</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1.5708000000000001E-8</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1.5297999999999999E-8</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1.4905E-8</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1.4526000000000001E-8</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1.4161E-8</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1.3809999999999999E-8</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1.3472E-8</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1.3146000000000001E-8</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1.2832E-8</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1.2528999999999999E-8</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1.2237000000000001E-8</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1.1954000000000001E-8</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1.1682E-8</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1.1418E-8</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1.1164E-8</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1.0918000000000001E-8</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1.0678999999999999E-8</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1.0449E-8</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>1.0226E-8</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>1.001E-8</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>9.8008000000000003E-9</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>9.5980999999999998E-9</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>9.4017000000000007E-9</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>9.2111999999999998E-9</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>9.0263999999999994E-9</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>8.8472000000000006E-9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A9B3-41C3-B1CA-879DA065C754}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1574162751"/>
+        <c:axId val="1574164831"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1574162751"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+          <c:min val="10"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1574164831"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1574164831"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+          <c:max val="1.0000000000000003E-4"/>
+          <c:min val="1.0000000000000005E-8"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1574162751"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>517860</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>71939</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>555960</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>181476</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{16C961AD-D85E-40F0-9983-AF149F94D00D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -689,843 +2193,844 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35E25041-F775-4352-B3D2-7F8F96AC2B77}">
   <dimension ref="A1:B110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A74" workbookViewId="0">
-      <selection activeCell="A101" sqref="A101:B110"/>
+    <sheetView tabSelected="1" topLeftCell="B8" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1">
+      <c r="A1">
+        <v>10</v>
+      </c>
+      <c r="B1" s="1">
         <v>8.2823000000000003E-5</v>
       </c>
-      <c r="B1">
-        <v>10</v>
-      </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
+      <c r="A2">
+        <v>20</v>
+      </c>
+      <c r="B2" s="1">
         <v>2.1117000000000001E-5</v>
       </c>
-      <c r="B2">
-        <v>20</v>
-      </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+      <c r="A3">
+        <v>30</v>
+      </c>
+      <c r="B3" s="1">
         <v>9.4693999999999995E-6</v>
       </c>
-      <c r="B3">
-        <v>30</v>
-      </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+      <c r="A4">
+        <v>40</v>
+      </c>
+      <c r="B4" s="1">
         <v>5.3561000000000003E-6</v>
       </c>
-      <c r="B4">
-        <v>40</v>
-      </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
+      <c r="A5">
+        <v>50</v>
+      </c>
+      <c r="B5" s="1">
         <v>3.4415999999999998E-6</v>
       </c>
-      <c r="B5">
-        <v>50</v>
-      </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
+      <c r="A6">
+        <v>60</v>
+      </c>
+      <c r="B6" s="1">
         <v>2.3974000000000001E-6</v>
       </c>
-      <c r="B6">
-        <v>60</v>
-      </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
+      <c r="A7">
+        <v>70</v>
+      </c>
+      <c r="B7" s="1">
         <v>1.7655000000000001E-6</v>
       </c>
-      <c r="B7">
-        <v>70</v>
-      </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
+      <c r="A8">
+        <v>80</v>
+      </c>
+      <c r="B8" s="1">
         <v>1.3543000000000001E-6</v>
       </c>
-      <c r="B8">
-        <v>80</v>
-      </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
+      <c r="A9">
+        <v>90</v>
+      </c>
+      <c r="B9" s="1">
         <v>1.0717E-6</v>
       </c>
-      <c r="B9">
-        <v>90</v>
-      </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
+      <c r="A10">
+        <v>100</v>
+      </c>
+      <c r="B10" s="1">
         <v>8.6927999999999996E-7</v>
       </c>
-      <c r="B10">
-        <v>100</v>
-      </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>8.2823000000000003E-5</v>
-      </c>
-      <c r="B11">
+      <c r="A11">
         <v>110</v>
       </c>
+      <c r="B11" s="1">
+        <v>7.1925000000000004E-7</v>
+      </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>2.1117000000000001E-5</v>
-      </c>
-      <c r="B12">
+      <c r="A12">
         <v>120</v>
       </c>
+      <c r="B12" s="1">
+        <v>6.0500000000000003E-7</v>
+      </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>9.4693999999999995E-6</v>
-      </c>
-      <c r="B13">
+      <c r="A13">
         <v>130</v>
       </c>
+      <c r="B13" s="1">
+        <v>5.1597000000000003E-7</v>
+      </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>5.3561000000000003E-6</v>
-      </c>
-      <c r="B14">
+      <c r="A14">
         <v>140</v>
       </c>
+      <c r="B14" s="1">
+        <v>4.4526E-7</v>
+      </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>3.4415999999999998E-6</v>
-      </c>
-      <c r="B15">
+      <c r="A15">
         <v>150</v>
       </c>
+      <c r="B15" s="1">
+        <v>3.8814999999999999E-7</v>
+      </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>2.3974000000000001E-6</v>
-      </c>
-      <c r="B16">
+      <c r="A16">
         <v>160</v>
       </c>
+      <c r="B16" s="1">
+        <v>3.4136999999999999E-7</v>
+      </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <v>1.7655000000000001E-6</v>
-      </c>
-      <c r="B17">
+      <c r="A17">
         <v>170</v>
       </c>
+      <c r="B17" s="1">
+        <v>3.0256999999999999E-7</v>
+      </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
-        <v>1.3543000000000001E-6</v>
-      </c>
-      <c r="B18">
+      <c r="A18">
         <v>180</v>
       </c>
+      <c r="B18" s="1">
+        <v>2.7004E-7</v>
+      </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
-        <v>1.0717E-6</v>
-      </c>
-      <c r="B19">
+      <c r="A19">
         <v>190</v>
       </c>
+      <c r="B19" s="1">
+        <v>2.4247999999999998E-7</v>
+      </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
-        <v>8.6927999999999996E-7</v>
-      </c>
-      <c r="B20">
+      <c r="A20">
         <v>200</v>
       </c>
+      <c r="B20" s="1">
+        <v>2.1895000000000001E-7</v>
+      </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
-        <v>7.1925000000000004E-7</v>
-      </c>
-      <c r="B21">
+      <c r="A21">
         <v>210</v>
       </c>
+      <c r="B21" s="1">
+        <v>1.9868E-7</v>
+      </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
-        <v>6.0500000000000003E-7</v>
-      </c>
-      <c r="B22">
+      <c r="A22">
         <v>220</v>
       </c>
+      <c r="B22" s="1">
+        <v>1.811E-7</v>
+      </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
-        <v>5.1597000000000003E-7</v>
-      </c>
-      <c r="B23">
+      <c r="A23">
         <v>230</v>
       </c>
+      <c r="B23" s="1">
+        <v>1.6576E-7</v>
+      </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
-        <v>4.4526E-7</v>
-      </c>
-      <c r="B24">
+      <c r="A24">
         <v>240</v>
       </c>
+      <c r="B24" s="1">
+        <v>1.5229E-7</v>
+      </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
-        <v>3.8814999999999999E-7</v>
-      </c>
-      <c r="B25">
+      <c r="A25">
         <v>250</v>
       </c>
+      <c r="B25" s="1">
+        <v>1.4039E-7</v>
+      </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
-        <v>3.4136999999999999E-7</v>
-      </c>
-      <c r="B26">
+      <c r="A26">
         <v>260</v>
       </c>
+      <c r="B26" s="1">
+        <v>1.2984E-7</v>
+      </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="1">
-        <v>3.0256999999999999E-7</v>
-      </c>
-      <c r="B27">
+      <c r="A27">
         <v>270</v>
       </c>
+      <c r="B27" s="1">
+        <v>1.2044000000000001E-7</v>
+      </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
-        <v>2.7004E-7</v>
-      </c>
-      <c r="B28">
+      <c r="A28">
         <v>280</v>
       </c>
+      <c r="B28" s="1">
+        <v>1.1202000000000001E-7</v>
+      </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="1">
-        <v>2.4247999999999998E-7</v>
-      </c>
-      <c r="B29">
+      <c r="A29">
         <v>290</v>
       </c>
+      <c r="B29" s="1">
+        <v>1.0446E-7</v>
+      </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="1">
-        <v>2.1895000000000001E-7</v>
-      </c>
-      <c r="B30">
+      <c r="A30">
         <v>300</v>
       </c>
+      <c r="B30" s="1">
+        <v>9.7635E-8</v>
+      </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="1">
-        <v>1.9868E-7</v>
-      </c>
-      <c r="B31">
+      <c r="A31">
         <v>310</v>
       </c>
+      <c r="B31" s="1">
+        <v>9.146E-8</v>
+      </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="1">
-        <v>1.811E-7</v>
-      </c>
-      <c r="B32">
+      <c r="A32">
         <v>320</v>
       </c>
+      <c r="B32" s="1">
+        <v>8.5852999999999995E-8</v>
+      </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="1">
-        <v>1.6576E-7</v>
-      </c>
-      <c r="B33">
+      <c r="A33">
         <v>330</v>
       </c>
+      <c r="B33" s="1">
+        <v>8.0746000000000001E-8</v>
+      </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="1">
-        <v>1.5229E-7</v>
-      </c>
-      <c r="B34">
+      <c r="A34">
         <v>340</v>
       </c>
+      <c r="B34" s="1">
+        <v>7.6082999999999994E-8</v>
+      </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="1">
-        <v>1.4039E-7</v>
-      </c>
-      <c r="B35">
+      <c r="A35">
         <v>350</v>
       </c>
+      <c r="B35" s="1">
+        <v>7.1811999999999995E-8</v>
+      </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="1">
-        <v>1.2984E-7</v>
-      </c>
-      <c r="B36">
+      <c r="A36">
         <v>360</v>
       </c>
+      <c r="B36" s="1">
+        <v>6.7889999999999994E-8</v>
+      </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="1">
-        <v>1.2044000000000001E-7</v>
-      </c>
-      <c r="B37">
+      <c r="A37">
         <v>370</v>
       </c>
+      <c r="B37" s="1">
+        <v>6.4282000000000006E-8</v>
+      </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="1">
-        <v>1.1202000000000001E-7</v>
-      </c>
-      <c r="B38">
+      <c r="A38">
         <v>380</v>
       </c>
+      <c r="B38" s="1">
+        <v>6.0955000000000006E-8</v>
+      </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="1">
-        <v>1.0446E-7</v>
-      </c>
-      <c r="B39">
+      <c r="A39">
         <v>390</v>
       </c>
+      <c r="B39" s="1">
+        <v>5.7878999999999998E-8</v>
+      </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="1">
-        <v>9.7635E-8</v>
-      </c>
-      <c r="B40">
+      <c r="A40">
         <v>400</v>
       </c>
+      <c r="B40" s="1">
+        <v>5.5029999999999997E-8</v>
+      </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="1">
-        <v>9.146E-8</v>
-      </c>
-      <c r="B41">
+      <c r="A41">
         <v>410</v>
       </c>
+      <c r="B41" s="1">
+        <v>5.2386999999999998E-8</v>
+      </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="1">
-        <v>8.5852999999999995E-8</v>
-      </c>
-      <c r="B42">
+      <c r="A42">
         <v>420</v>
       </c>
+      <c r="B42" s="1">
+        <v>4.9929999999999998E-8</v>
+      </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="1">
-        <v>8.0746000000000001E-8</v>
-      </c>
-      <c r="B43">
+      <c r="A43">
         <v>430</v>
       </c>
+      <c r="B43" s="1">
+        <v>4.7641000000000003E-8</v>
+      </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="1">
-        <v>7.6082999999999994E-8</v>
-      </c>
-      <c r="B44">
+      <c r="A44">
         <v>440</v>
       </c>
+      <c r="B44" s="1">
+        <v>4.5506999999999998E-8</v>
+      </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="1">
-        <v>7.1811999999999995E-8</v>
-      </c>
-      <c r="B45">
+      <c r="A45">
         <v>450</v>
       </c>
+      <c r="B45" s="1">
+        <v>4.3513000000000001E-8</v>
+      </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="1">
-        <v>6.7889999999999994E-8</v>
-      </c>
-      <c r="B46">
+      <c r="A46">
         <v>460</v>
       </c>
+      <c r="B46" s="1">
+        <v>4.1647000000000002E-8</v>
+      </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="1">
-        <v>6.4282000000000006E-8</v>
-      </c>
-      <c r="B47">
+      <c r="A47">
         <v>470</v>
       </c>
+      <c r="B47" s="1">
+        <v>3.9898999999999999E-8</v>
+      </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" s="1">
-        <v>6.0955000000000006E-8</v>
-      </c>
-      <c r="B48">
+      <c r="A48">
         <v>480</v>
       </c>
+      <c r="B48" s="1">
+        <v>3.8258999999999999E-8</v>
+      </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="1">
-        <v>5.7878999999999998E-8</v>
-      </c>
-      <c r="B49">
+      <c r="A49">
         <v>490</v>
       </c>
+      <c r="B49" s="1">
+        <v>3.6717999999999998E-8</v>
+      </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="1">
-        <v>5.5029999999999997E-8</v>
-      </c>
-      <c r="B50">
+      <c r="A50">
         <v>500</v>
       </c>
+      <c r="B50" s="1">
+        <v>3.5268000000000002E-8</v>
+      </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" s="1">
-        <v>5.2386999999999998E-8</v>
-      </c>
-      <c r="B51">
+      <c r="A51">
         <v>510</v>
       </c>
+      <c r="B51" s="1">
+        <v>3.3902000000000001E-8</v>
+      </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="1">
-        <v>4.9929999999999998E-8</v>
-      </c>
-      <c r="B52">
+      <c r="A52">
         <v>520</v>
       </c>
+      <c r="B52" s="1">
+        <v>3.2613999999999997E-8</v>
+      </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" s="1">
-        <v>4.7641000000000003E-8</v>
-      </c>
-      <c r="B53">
+      <c r="A53">
         <v>530</v>
       </c>
+      <c r="B53" s="1">
+        <v>3.1399000000000002E-8</v>
+      </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" s="1">
-        <v>4.5506999999999998E-8</v>
-      </c>
-      <c r="B54">
+      <c r="A54">
         <v>540</v>
       </c>
+      <c r="B54" s="1">
+        <v>3.0250000000000003E-8</v>
+      </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" s="1">
-        <v>4.3513000000000001E-8</v>
-      </c>
-      <c r="B55">
+      <c r="A55">
         <v>550</v>
       </c>
+      <c r="B55" s="1">
+        <v>2.9163000000000001E-8</v>
+      </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" s="1">
-        <v>4.1647000000000002E-8</v>
-      </c>
-      <c r="B56">
+      <c r="A56">
         <v>560</v>
       </c>
+      <c r="B56" s="1">
+        <v>2.8133000000000001E-8</v>
+      </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" s="1">
-        <v>3.9898999999999999E-8</v>
-      </c>
-      <c r="B57">
+      <c r="A57">
         <v>570</v>
       </c>
+      <c r="B57" s="1">
+        <v>2.7157E-8</v>
+      </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" s="1">
-        <v>3.8258999999999999E-8</v>
-      </c>
-      <c r="B58">
+      <c r="A58">
         <v>580</v>
       </c>
+      <c r="B58" s="1">
+        <v>2.6230999999999998E-8</v>
+      </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" s="1">
-        <v>3.6717999999999998E-8</v>
-      </c>
-      <c r="B59">
+      <c r="A59">
         <v>590</v>
       </c>
+      <c r="B59" s="1">
+        <v>2.5352000000000001E-8</v>
+      </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" s="1">
-        <v>3.5268000000000002E-8</v>
-      </c>
-      <c r="B60">
+      <c r="A60">
         <v>600</v>
       </c>
+      <c r="B60" s="1">
+        <v>2.4515999999999999E-8</v>
+      </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" s="1">
-        <v>3.3902000000000001E-8</v>
-      </c>
-      <c r="B61">
+      <c r="A61">
         <v>610</v>
       </c>
+      <c r="B61" s="1">
+        <v>2.3721000000000001E-8</v>
+      </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" s="1">
-        <v>3.2613999999999997E-8</v>
-      </c>
-      <c r="B62">
+      <c r="A62">
         <v>620</v>
       </c>
+      <c r="B62" s="1">
+        <v>2.2964E-8</v>
+      </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" s="1">
-        <v>3.1399000000000002E-8</v>
-      </c>
-      <c r="B63">
+      <c r="A63">
         <v>630</v>
       </c>
+      <c r="B63" s="1">
+        <v>2.2242999999999999E-8</v>
+      </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" s="1">
-        <v>3.0250000000000003E-8</v>
-      </c>
-      <c r="B64">
+      <c r="A64">
         <v>640</v>
       </c>
+      <c r="B64" s="1">
+        <v>2.1555E-8</v>
+      </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" s="1">
-        <v>2.9163000000000001E-8</v>
-      </c>
-      <c r="B65">
+      <c r="A65">
         <v>650</v>
       </c>
+      <c r="B65" s="1">
+        <v>2.0898E-8</v>
+      </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" s="1">
-        <v>2.8133000000000001E-8</v>
-      </c>
-      <c r="B66">
+      <c r="A66">
         <v>660</v>
       </c>
+      <c r="B66" s="1">
+        <v>2.0271E-8</v>
+      </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" s="1">
-        <v>2.7157E-8</v>
-      </c>
-      <c r="B67">
+      <c r="A67">
         <v>670</v>
       </c>
+      <c r="B67" s="1">
+        <v>1.9671999999999999E-8</v>
+      </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68" s="1">
-        <v>2.6230999999999998E-8</v>
-      </c>
-      <c r="B68">
+      <c r="A68">
         <v>680</v>
       </c>
+      <c r="B68" s="1">
+        <v>1.9099000000000001E-8</v>
+      </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" s="1">
-        <v>2.5352000000000001E-8</v>
-      </c>
-      <c r="B69">
+      <c r="A69">
         <v>690</v>
       </c>
+      <c r="B69" s="1">
+        <v>1.8550999999999998E-8</v>
+      </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70" s="1">
-        <v>2.4515999999999999E-8</v>
-      </c>
-      <c r="B70">
+      <c r="A70">
         <v>700</v>
       </c>
+      <c r="B70" s="1">
+        <v>1.8025999999999999E-8</v>
+      </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71" s="1">
-        <v>2.3721000000000001E-8</v>
-      </c>
-      <c r="B71">
+      <c r="A71">
         <v>710</v>
       </c>
+      <c r="B71" s="1">
+        <v>1.7523000000000001E-8</v>
+      </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A72" s="1">
-        <v>2.2964E-8</v>
-      </c>
-      <c r="B72">
+      <c r="A72">
         <v>720</v>
       </c>
+      <c r="B72" s="1">
+        <v>1.7041E-8</v>
+      </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A73" s="1">
-        <v>2.2242999999999999E-8</v>
-      </c>
-      <c r="B73">
+      <c r="A73">
         <v>730</v>
       </c>
+      <c r="B73" s="1">
+        <v>1.6578000000000001E-8</v>
+      </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A74" s="1">
-        <v>2.1555E-8</v>
-      </c>
-      <c r="B74">
+      <c r="A74">
         <v>740</v>
       </c>
+      <c r="B74" s="1">
+        <v>1.6134999999999999E-8</v>
+      </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75" s="1">
-        <v>2.0898E-8</v>
-      </c>
-      <c r="B75">
+      <c r="A75">
         <v>750</v>
       </c>
+      <c r="B75" s="1">
+        <v>1.5708000000000001E-8</v>
+      </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A76" s="1">
-        <v>2.0271E-8</v>
-      </c>
-      <c r="B76">
+      <c r="A76">
         <v>760</v>
       </c>
+      <c r="B76" s="1">
+        <v>1.5297999999999999E-8</v>
+      </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77" s="1">
-        <v>1.9671999999999999E-8</v>
-      </c>
-      <c r="B77">
+      <c r="A77">
         <v>770</v>
       </c>
+      <c r="B77" s="1">
+        <v>1.4905E-8</v>
+      </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A78" s="1">
-        <v>1.9099000000000001E-8</v>
-      </c>
-      <c r="B78">
+      <c r="A78">
         <v>780</v>
       </c>
+      <c r="B78" s="1">
+        <v>1.4526000000000001E-8</v>
+      </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A79" s="1">
-        <v>1.8550999999999998E-8</v>
-      </c>
-      <c r="B79">
+      <c r="A79">
         <v>790</v>
       </c>
+      <c r="B79" s="1">
+        <v>1.4161E-8</v>
+      </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A80" s="1">
-        <v>1.8025999999999999E-8</v>
-      </c>
-      <c r="B80">
+      <c r="A80">
         <v>800</v>
       </c>
+      <c r="B80" s="1">
+        <v>1.3809999999999999E-8</v>
+      </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A81" s="1">
-        <v>1.7523000000000001E-8</v>
-      </c>
-      <c r="B81">
+      <c r="A81">
         <v>810</v>
       </c>
+      <c r="B81" s="1">
+        <v>1.3472E-8</v>
+      </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A82" s="1">
-        <v>1.7041E-8</v>
-      </c>
-      <c r="B82">
+      <c r="A82">
         <v>820</v>
       </c>
+      <c r="B82" s="1">
+        <v>1.3146000000000001E-8</v>
+      </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A83" s="1">
-        <v>1.6578000000000001E-8</v>
-      </c>
-      <c r="B83">
+      <c r="A83">
         <v>830</v>
       </c>
+      <c r="B83" s="1">
+        <v>1.2832E-8</v>
+      </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A84" s="1">
-        <v>1.6134999999999999E-8</v>
-      </c>
-      <c r="B84">
+      <c r="A84">
         <v>840</v>
       </c>
+      <c r="B84" s="1">
+        <v>1.2528999999999999E-8</v>
+      </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A85" s="1">
-        <v>1.5708000000000001E-8</v>
-      </c>
-      <c r="B85">
+      <c r="A85">
         <v>850</v>
       </c>
+      <c r="B85" s="1">
+        <v>1.2237000000000001E-8</v>
+      </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A86" s="1">
-        <v>1.5297999999999999E-8</v>
-      </c>
-      <c r="B86">
+      <c r="A86">
         <v>860</v>
       </c>
+      <c r="B86" s="1">
+        <v>1.1954000000000001E-8</v>
+      </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A87" s="1">
-        <v>1.4905E-8</v>
-      </c>
-      <c r="B87">
+      <c r="A87">
         <v>870</v>
       </c>
+      <c r="B87" s="1">
+        <v>1.1682E-8</v>
+      </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A88" s="1">
-        <v>1.4526000000000001E-8</v>
-      </c>
-      <c r="B88">
+      <c r="A88">
         <v>880</v>
       </c>
+      <c r="B88" s="1">
+        <v>1.1418E-8</v>
+      </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A89" s="1">
-        <v>1.4161E-8</v>
-      </c>
-      <c r="B89">
+      <c r="A89">
         <v>890</v>
       </c>
+      <c r="B89" s="1">
+        <v>1.1164E-8</v>
+      </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A90" s="1">
-        <v>1.3809999999999999E-8</v>
-      </c>
-      <c r="B90">
+      <c r="A90">
         <v>900</v>
       </c>
+      <c r="B90" s="1">
+        <v>1.0918000000000001E-8</v>
+      </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A91" s="1">
-        <v>1.3472E-8</v>
-      </c>
-      <c r="B91">
+      <c r="A91">
         <v>910</v>
       </c>
+      <c r="B91" s="1">
+        <v>1.0678999999999999E-8</v>
+      </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A92" s="1">
-        <v>1.3146000000000001E-8</v>
-      </c>
-      <c r="B92">
+      <c r="A92">
         <v>920</v>
       </c>
+      <c r="B92" s="1">
+        <v>1.0449E-8</v>
+      </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A93" s="1">
-        <v>1.2832E-8</v>
-      </c>
-      <c r="B93">
+      <c r="A93">
         <v>930</v>
       </c>
+      <c r="B93" s="1">
+        <v>1.0226E-8</v>
+      </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A94" s="1">
-        <v>1.2528999999999999E-8</v>
-      </c>
-      <c r="B94">
+      <c r="A94">
         <v>940</v>
       </c>
+      <c r="B94" s="1">
+        <v>1.001E-8</v>
+      </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A95" s="1">
-        <v>1.2237000000000001E-8</v>
-      </c>
-      <c r="B95">
+      <c r="A95">
         <v>950</v>
       </c>
+      <c r="B95" s="1">
+        <v>9.8008000000000003E-9</v>
+      </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A96" s="1">
-        <v>1.1954000000000001E-8</v>
-      </c>
-      <c r="B96">
+      <c r="A96">
         <v>960</v>
       </c>
+      <c r="B96" s="1">
+        <v>9.5980999999999998E-9</v>
+      </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A97" s="1">
-        <v>1.1682E-8</v>
-      </c>
-      <c r="B97">
+      <c r="A97">
         <v>970</v>
       </c>
+      <c r="B97" s="1">
+        <v>9.4017000000000007E-9</v>
+      </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A98" s="1">
-        <v>1.1418E-8</v>
-      </c>
-      <c r="B98">
+      <c r="A98">
         <v>980</v>
       </c>
+      <c r="B98" s="1">
+        <v>9.2111999999999998E-9</v>
+      </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A99" s="1">
-        <v>1.1164E-8</v>
-      </c>
-      <c r="B99">
+      <c r="A99">
         <v>990</v>
       </c>
+      <c r="B99" s="1">
+        <v>9.0263999999999994E-9</v>
+      </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A100" s="1">
-        <v>1.0918000000000001E-8</v>
-      </c>
-      <c r="B100">
+      <c r="A100">
         <v>1000</v>
       </c>
+      <c r="B100" s="1">
+        <v>8.8472000000000006E-9</v>
+      </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A101" s="1"/>
+      <c r="B101" s="1"/>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A102" s="1"/>
+      <c r="B102" s="1"/>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A103" s="1"/>
+      <c r="B103" s="1"/>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A104" s="1"/>
+      <c r="B104" s="1"/>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A105" s="1"/>
+      <c r="B105" s="1"/>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A106" s="1"/>
+      <c r="B106" s="1"/>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A107" s="1"/>
+      <c r="B107" s="1"/>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A108" s="1"/>
+      <c r="B108" s="1"/>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A109" s="1"/>
+      <c r="B109" s="1"/>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A110" s="1"/>
+      <c r="B110" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>